--- a/코브라/List.xlsx
+++ b/코브라/List.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CapstoneDesign\capstoneDesign\코브라\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28032" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13x13x6.5T(N34)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9000+2500(배송비)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홈페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,46 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반합판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5Tx1,220x2,440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28600+30000(배송비)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://smartstore.naver.com/woodgood/products/3370307726?NaPm=ct%3Djmk7l4rk%7Cci%3D6c603ecf7474d8e7748159ae1057a3fed5d96959%7Ctr%3Dligh%7Csn%3D752307%7Cic%3D%7Chk%3D9bd31b1f88f7b2d6ea232e071de4b4f00f5ccca4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락카</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영일 락카 스프레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420ml//can</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=974926577&amp;pos_shop_cd=SH&amp;pos_class_cd=111111111&amp;pos_class_kind=T&amp;keyword_order=%bf%b5%c0%cf%b6%f4%c4%ab&amp;keyword_seqno=16094727786&amp;search_keyword=%ec%98%81%ec%9d%bc%eb%9d%bd%ec%b9%b4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1290+2750(배송비)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,11 +75,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35000+5000(배송비)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100x100x1.6T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목공공구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합판 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보모터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.77g.com/shopping/shopcart.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13x13x6.5T(N35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3 볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3X10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3 너트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemNo=B470575953&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemNo=B458523509&amp;frm3=V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=B248162532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬리컬밴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://itempage3.auction.co.kr/DetailView.aspx?itemno=A846145640</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +159,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +187,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,15 +213,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,8 +243,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -210,6 +266,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,245 +561,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="7"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="6">
+        <f>E2*F2+G2</f>
+        <v>21500</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8">
+        <v>44430</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
-        <v>11500</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>E3*F3+G3</f>
+        <v>44430</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>58600</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8">
+        <v>35000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="6">
+        <f>E4*F4+G4</f>
+        <v>40000</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8">
+        <v>4800</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="6">
+        <f>E5*F5+G5</f>
+        <v>50500</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2700</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H6" s="6">
+        <f>E6*F6+G6</f>
+        <v>7900</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4800</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f>E7*F7+G7</f>
+        <v>9600</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5800</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f>E8*F8+G8</f>
+        <v>11600</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3">
-        <v>4</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7660</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F9" s="4">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="6">
+        <f>E9*F9+G9</f>
+        <v>3500</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <f>E10*F10+G10</f>
+        <v>1000</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>40000</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="H11" s="7">
+        <f>SUM(H2:H10)</f>
+        <v>190030</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
-    <hyperlink ref="O3" r:id="rId2"/>
-    <hyperlink ref="O4" r:id="rId3"/>
-    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="I10" r:id="rId4"/>
+    <hyperlink ref="I9" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -750,7 +932,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,7 +945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
